--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">体会</t>
   </si>
   <si>
-    <t xml:space="preserve">2025.1.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">阅读文章并写读后感、安装Linux并克隆仓库</t>
   </si>
   <si>
@@ -44,14 +41,24 @@
   </si>
   <si>
     <t xml:space="preserve">尝试新的操作时可能遇到新的问题，要积极寻找解决方法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Linux基本使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今天第一次在Linux处理大量文字内容，感觉虽然有非整倍缩放但文字渲染仍然存在问题，最后改用200%缩放。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux的文本编辑器有代码高亮，不使用IDE时也比较方便编写程序和markdown。平时主要使用图形界面，对bash命令接触较少，在课程中了解到不少bash命令。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -139,25 +146,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,45 +424,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="105.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="55.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">体会</t>
   </si>
   <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
     <t xml:space="preserve">阅读文章并写读后感、安装Linux并克隆仓库</t>
   </si>
   <si>
@@ -43,13 +46,19 @@
     <t xml:space="preserve">尝试新的操作时可能遇到新的问题，要积极寻找解决方法。</t>
   </si>
   <si>
+    <t xml:space="preserve">之前用过几个Linux发行版，对比了多个发行版的外观和功能后选了Linux Mint</t>
+  </si>
+  <si>
     <t xml:space="preserve">学习Linux基本使用</t>
   </si>
   <si>
     <t xml:space="preserve">今天第一次在Linux处理大量文字内容，感觉虽然有非整倍缩放但文字渲染仍然存在问题，最后改用200%缩放。</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux的文本编辑器有代码高亮，不使用IDE时也比较方便编写程序和markdown。平时主要使用图形界面，对bash命令接触较少，在课程中了解到不少bash命令。</t>
+    <t xml:space="preserve">文本编辑器有代码高亮，不使用IDE时也比较方便编写程序和markdown。平时主要使用图形界面，对bash命令接触较少，在课程中了解到不少bash命令。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部分说明位于“Linux的基本使用_习题”文件</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,6 +168,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,6 +185,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,17 +441,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="46.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -450,33 +468,42 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>45664</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>45665</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -59,15 +59,28 @@
   </si>
   <si>
     <t xml:space="preserve">部分说明位于“Linux的基本使用_习题”文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复习c语言</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刚开始根据文档操作，后面运行程序记错指令了，用valgrind运行了源码而非二进制文件，后面装vscode，还是有同样问题，再检查才发现原因，因为高亮功能优势还是继续用vscode。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">之前了解过c语言，但还是不太能理解链表和指针的具体用途。文档中反对使用IDE的，这样能了解编译流程但编辑和编译的效率都较低。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由于文档包含运行结果，本次不另开文档记录运行结果。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -155,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,10 +181,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,8 +197,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -441,10 +450,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,7 +461,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="46.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -468,42 +477,59 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>45664</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>45665</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t xml:space="preserve">由于文档包含运行结果，本次不另开文档记录运行结果。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搭建verilator仿真环境</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvboard配置未完成。其它代码编译遇到几个问题已解决。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没有明确指引和例程可能导致需要大量时间修bug。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部分说明位于“5_搭建verilator仿真环境_笔记”文件</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +211,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -450,10 +466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,7 +532,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -530,6 +546,23 @@
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -83,6 +83,62 @@
   </si>
   <si>
     <t xml:space="preserve">部分说明位于“5_搭建verilator仿真环境_笔记”文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数字电路基础实验  HDLBits 基础、向量、模块部分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">文档中的《数字电路与计算机体系结构》只有英文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ppt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，比较难阅读，就直接做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HDLBits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">的内容了。没有给出完整例程但说明较为完善，不另外查询资料也能完成。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">提供完善的说明对编程语言学习很重要。之前在runoob也看过verilog教程，虽然有完整例程但因为缺少说明而看不懂具体的代码含义。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">习题记录位于“6_Verilog习题”文件</t>
   </si>
 </sst>
 </file>
@@ -94,7 +150,7 @@
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -136,6 +192,18 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +282,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,10 +538,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,10 +621,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="3" t="n">
         <v>45667</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -565,7 +637,27 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>45669</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="数字电路与计算机体系结构"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -88,69 +88,24 @@
     <t xml:space="preserve">数字电路基础实验  HDLBits 基础、向量、模块部分</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">文档中的《数字电路与计算机体系结构》只有英文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ppt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，比较难阅读，就直接做</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HDLBits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">的内容了。没有给出完整例程但说明较为完善，不另外查询资料也能完成。</t>
-    </r>
+    <t xml:space="preserve">文档中的《数字电路与计算机体系结构》只有英文ppt，比较难阅读，就直接做HDLBits的内容了。没有给出完整例程但说明较为完善，不另外查询资料也能完成。</t>
   </si>
   <si>
     <t xml:space="preserve">提供完善的说明对编程语言学习很重要。之前在runoob也看过verilog教程，虽然有完整例程但因为缺少说明而看不懂具体的代码含义。</t>
   </si>
   <si>
-    <t xml:space="preserve">习题记录位于“6_Verilog习题”文件</t>
+    <t xml:space="preserve">习题记录位于“6_HDLBits_Verilog习题”文件</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -196,14 +151,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,14 +224,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +483,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,13 +580,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -656,7 +598,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="数字电路与计算机体系结构"/>
+    <hyperlink ref="C6" r:id="rId1" display="文档中的《数字电路与计算机体系结构》只有英文ppt，比较难阅读，就直接做HDLBits的内容了。没有给出完整例程但说明较为完善，不另外查询资料也能完成。"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -94,7 +94,16 @@
     <t xml:space="preserve">提供完善的说明对编程语言学习很重要。之前在runoob也看过verilog教程，虽然有完整例程但因为缺少说明而看不懂具体的代码含义。</t>
   </si>
   <si>
-    <t xml:space="preserve">习题记录位于“6_HDLBits_Verilog习题”文件</t>
+    <t xml:space="preserve">1.昨天测试其它Linux发行版，暂停一天。2.习题记录位于“6_HDLBits_Verilog习题”文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDLBits 程序、更多特性部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由于有需要后台运行的程序要在Windows上运行，今天在Windows上学习和编辑笔记，记事本没有代码高亮，尝试了Visual Studio，有代码块范围显示和预览功能，比较好用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.昨天回家，暂停一天。2.同上。</t>
   </si>
 </sst>
 </file>
@@ -117,16 +126,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -480,9 +492,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -596,10 +608,21 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="文档中的《数字电路与计算机体系结构》只有英文ppt，比较难阅读，就直接做HDLBits的内容了。没有给出完整例程但说明较为完善，不另外查询资料也能完成。"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">提供完善的说明对编程语言学习很重要。之前在runoob也看过verilog教程，虽然有完整例程但因为缺少说明而看不懂具体的代码含义。</t>
   </si>
   <si>
-    <t xml:space="preserve">1.昨天测试其它Linux发行版，暂停一天。2.习题记录位于“6_HDLBits_Verilog习题”文件。</t>
+    <t xml:space="preserve">1.昨天测试其它Linux发行版，进度较慢，合并到第二天。2.习题记录位于“6_HDLBits_Verilog习题”文件。</t>
   </si>
   <si>
     <t xml:space="preserve">HDLBits 程序、更多特性部分</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">由于有需要后台运行的程序要在Windows上运行，今天在Windows上学习和编辑笔记，记事本没有代码高亮，尝试了Visual Studio，有代码块范围显示和预览功能，比较好用。</t>
   </si>
   <si>
-    <t xml:space="preserve">1.昨天回家，暂停一天。2.同上。</t>
+    <t xml:space="preserve">1.昨天回家，进度较慢，合并到第二天。2.同上。</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -100,7 +100,29 @@
     <t xml:space="preserve">HDLBits 程序、更多特性部分</t>
   </si>
   <si>
-    <t xml:space="preserve">由于有需要后台运行的程序要在Windows上运行，今天在Windows上学习和编辑笔记，记事本没有代码高亮，尝试了Visual Studio，有代码块范围显示和预览功能，比较好用。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">部分条目由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HDLBits上的说明不够详细或看漏部分内容，经过修改无法编译通过，并且比较难直接查询相应语法，就使用AI改写以得到正确的语法。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.由于有程序要在Windows上运行，今天在Windows上操作，尝试用Visual Studio编辑.md文件,有代码块范围显示和预览功能，比较好用。2.此前在Linux使用Libre Office编辑本表格会自动转换输入的日期，为了操作统一在Windows也改用Libre Office。</t>
   </si>
   <si>
     <t xml:space="preserve">1.昨天回家，进度较慢，合并到第二天。2.同上。</t>
@@ -495,7 +517,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,11 +637,14 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -127,6 +127,12 @@
   <si>
     <t xml:space="preserve">1.昨天回家，进度较慢，合并到第二天。2.同上。</t>
   </si>
+  <si>
+    <t xml:space="preserve">部署Chisel。学习Chisel Users Guide。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在Windows安装 的 Scala CLI 的JDK下载链接指向无效页面，手动安装指定版本也不能跳过下载。改为在Linux安装。 </t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -188,6 +194,13 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,6 +275,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,10 +531,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,6 +664,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -131,7 +131,7 @@
     <t xml:space="preserve">部署Chisel。学习Chisel Users Guide。</t>
   </si>
   <si>
-    <t xml:space="preserve">在Windows安装 的 Scala CLI 的JDK下载链接指向无效页面，手动安装指定版本也不能跳过下载。改为在Linux安装。 </t>
+    <t xml:space="preserve">Scala CLI 的JDK下载链接指向无效页面，在Windows上手动安装JDK并添加JAVA_HOME能解决。后面的编译器可以通过scoop安装（可能要先安装scoop包管理器）</t>
   </si>
 </sst>
 </file>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -131,7 +131,10 @@
     <t xml:space="preserve">部署Chisel。学习Chisel Users Guide。</t>
   </si>
   <si>
-    <t xml:space="preserve">Scala CLI 的JDK下载链接指向无效页面，在Windows上手动安装JDK并添加JAVA_HOME能解决。后面的编译器可以通过scoop安装（可能要先安装scoop包管理器）</t>
+    <t xml:space="preserve">Scala CLI 的JDK下载链接指向无效页面，手动安装JDK并添加JAVA_HOME能解决但在Windows无法运行，唯一一个匹配的issue还是要下载上述链接，在Linux没有报错但程序没有输出且不终止。SBT在Windows可以通过scoop安装，在Linux要手动安装。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以上通过Scala CLI 下载以及SBT安装脚本无法调用代理，速度很慢。总体来说Chisel由于依赖项复杂以及缺少安装流程优化，安装比较麻烦。</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -154,19 +157,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -196,11 +196,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,6 +292,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,8 +554,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,7 +678,7 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -671,8 +692,11 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -100,29 +100,10 @@
     <t xml:space="preserve">HDLBits 程序、更多特性部分</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">部分条目由于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">HDLBits上的说明不够详细或看漏部分内容，经过修改无法编译通过，并且比较难直接查询相应语法，就使用AI改写以得到正确的语法。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.由于有程序要在Windows上运行，今天在Windows上操作，尝试用Visual Studio编辑.md文件,有代码块范围显示和预览功能，比较好用。2.此前在Linux使用Libre Office编辑本表格会自动转换输入的日期，为了操作统一在Windows也改用Libre Office。</t>
+    <t xml:space="preserve">部分条目由于HDLBits上的说明不够详细或看漏部分内容，经过修改无法编译通过，并且比较难直接查询相应语法，就使用AI改写以得到正确的语法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.由于有程序要在Windows上运行，今天在Windows上操作，尝试用Visual Studio编辑.md文件,代码块范围显示和预览功能比较好用。2.考虑日期转换功能，为了操作统一在Windows也改用Libre Office。</t>
   </si>
   <si>
     <t xml:space="preserve">1.昨天回家，进度较慢，合并到第二天。2.同上。</t>
@@ -131,21 +112,34 @@
     <t xml:space="preserve">部署Chisel。学习Chisel Users Guide。</t>
   </si>
   <si>
-    <t xml:space="preserve">Scala CLI 的JDK下载链接指向无效页面，手动安装JDK并添加JAVA_HOME能解决但在Windows无法运行，唯一一个匹配的issue还是要下载上述链接，在Linux没有报错但程序没有输出且不终止。SBT在Windows可以通过scoop安装，在Linux要手动安装。</t>
+    <t xml:space="preserve">Scala CLI 的JDK下载链接无效，手动安装并添加环境变量在Windows无法运行，唯一一个匹配的issue还是要下载上述链接，在Linux没有报错但程序没有输出且不终止。SBT在Windows可以通过scoop安装，在Linux要手动安装。</t>
   </si>
   <si>
     <t xml:space="preserve">以上通过Scala CLI 下载以及SBT安装脚本无法调用代理，速度很慢。总体来说Chisel由于依赖项复杂以及缺少安装流程优化，安装比较麻烦。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Chisel Bootcamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chisel Users Guide缺少对单个语句的说明，之前因为在线运行每次要重新部署Chisel Bootcamp而暂时跳过，今天改为本地通过docker部署。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部署Chisel Bootcamp也算是完成了在Windows上的Chisel部署，并且部署速度快很多。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -157,16 +151,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -177,43 +174,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111111"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,7 +255,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,28 +283,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -552,10 +540,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,7 +609,7 @@
       <c r="A4" s="3" t="n">
         <v>45666</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -644,7 +632,7 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -658,7 +646,7 @@
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -678,7 +666,7 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -692,12 +680,30 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">无</t>
   </si>
   <si>
-    <t xml:space="preserve">学习Chisel Bootcamp</t>
+    <t xml:space="preserve">学习Chisel Bootcamp章节0到2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Chisel Users Guide缺少对单个语句的说明，之前因为在线运行每次要重新部署Chisel Bootcamp而暂时跳过，今天改为本地通过docker部署。</t>
@@ -134,12 +134,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -192,13 +191,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,20 +267,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -542,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,13 +681,15 @@
       <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -128,15 +128,25 @@
   </si>
   <si>
     <t xml:space="preserve">部署Chisel Bootcamp也算是完成了在Windows上的Chisel部署，并且部署速度快很多。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Chisel Bootcamp章节2.2到2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相比Verilog，Chisel的功能更多但语法也更复杂，影响学习速度。此外，Chisel Bootcamp偏向使用较长的变量名，在不熟悉语法的情况下容易混淆而影响阅读速度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同前</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -234,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,6 +283,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -524,10 +538,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -691,6 +705,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">同前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Chisel Bootcamp章节2.5到3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由于后面的章节内容少一些，进度比昨天加快了，但还是有不少语法比较难理解。后续实际项目可能还是会采用Verilog。</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,7 +712,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="8" t="n">
         <v>45674</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -719,6 +725,23 @@
         <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>45675</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t xml:space="preserve">由于后面的章节内容少一些，进度比昨天加快了，但还是有不少语法比较难理解。后续实际项目可能还是会采用Verilog。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Chisel Bootcamp章节3.4到4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chisel主要特点是面向对象编程，由于语法类似与Java，而我比较熟悉的编程语言是C语言和Python，Verilog作为接近C语言的电路编程语言对我来说更容易上手。</t>
   </si>
 </sst>
 </file>
@@ -544,10 +553,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -729,7 +738,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="8" t="n">
         <v>45675</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -742,6 +751,23 @@
         <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t xml:space="preserve">Chisel主要特点是面向对象编程，由于语法类似与Java，而我比较熟悉的编程语言是C语言和Python，Verilog作为接近C语言的电路编程语言对我来说更容易上手。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习 “verilog学习资料”部分 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">视频中仿真以及FPGA等内容不符合之前的技术路线就跳过了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虽然之前在HDLBits了解到不少语法，但从这次的教程中进一步了解到了组合逻辑与时序逻辑在代码和执行上的区别以及流水线设计等内容，有一定收获。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">记录位于“Verilog学习资料_笔记”文件</t>
   </si>
 </sst>
 </file>
@@ -163,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FFC0C0C0"/>
@@ -216,6 +228,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +321,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -553,10 +576,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,7 +778,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="8" t="n">
         <v>45676</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -769,6 +792,23 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t xml:space="preserve">记录位于“Verilog学习资料_笔记”文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习数字电路实验1到6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过实验说明接触到了更多电路模块和设计方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为了接触更多电路，决定先阅读说明，后续再进行要求部分的实验</t>
   </si>
 </sst>
 </file>
@@ -319,12 +328,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -576,10 +585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,10 +804,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="8" t="n">
         <v>45677</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -809,6 +818,23 @@
       </c>
       <c r="E13" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/files/2_学习记录.xlsx
+++ b/files/2_学习记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">为了接触更多电路，决定先阅读说明，后续再进行要求部分的实验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习数字电路实验7到12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过实验介绍了解到实现RISC-V CPU和一些外设的大致流程。由于尚未学习部分相关知识，一些内容暂时不能看懂。以后会在这个方向进一步学习。</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -821,7 +827,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="8" t="n">
         <v>45678</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -835,6 +841,23 @@
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
